--- a/data_group/significance_results_prec_testt.xlsx
+++ b/data_group/significance_results_prec_testt.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CBA_PF_vs_SF_beginning</t>
+          <t>CBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>EBA_PF_vs_SF_beginning</t>
+          <t>EBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -395,7 +395,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SBA_PF_vs_SF_beginning</t>
+          <t>SBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">

--- a/data_group/significance_results_prec_testt.xlsx
+++ b/data_group/significance_results_prec_testt.xlsx
@@ -416,31 +416,31 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.08974206662635774</v>
+        <v>0.04104106174909061</v>
       </c>
       <c r="C2">
-        <v>0.1644078763797403</v>
+        <v>0.079140237732512</v>
       </c>
       <c r="D2">
-        <v>0.6539680271106452</v>
+        <v>0.4342784642708778</v>
       </c>
       <c r="E2">
-        <v>5.328776633795719E-07</v>
+        <v>1.892928509572198E-10</v>
       </c>
       <c r="F2">
-        <v>3.218060705778766E-06</v>
+        <v>1.02739420751276E-09</v>
       </c>
       <c r="G2">
-        <v>0.002400350575020322</v>
+        <v>5.190146093904089E-06</v>
       </c>
       <c r="H2">
-        <v>0.9729134709480124</v>
+        <v>0.01449169656775852</v>
       </c>
       <c r="I2">
-        <v>0.6298044855159264</v>
+        <v>0.005286021005249498</v>
       </c>
       <c r="J2">
-        <v>0.7300026178972634</v>
+        <v>0.01565785610555783</v>
       </c>
     </row>
     <row r="3">
@@ -450,31 +450,31 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.01911367523655382</v>
+        <v>0.01000523986234775</v>
       </c>
       <c r="C3">
-        <v>0.0407445866377991</v>
+        <v>0.02169505843080517</v>
       </c>
       <c r="D3">
-        <v>0.2484112191795837</v>
+        <v>0.1656634886230309</v>
       </c>
       <c r="E3">
-        <v>2.771314488716719E-07</v>
+        <v>2.878884738189768E-10</v>
       </c>
       <c r="F3">
-        <v>5.938899426510377E-06</v>
+        <v>4.803715434003431E-09</v>
       </c>
       <c r="G3">
-        <v>0.0154090201223065</v>
+        <v>8.670142042079285E-05</v>
       </c>
       <c r="H3">
-        <v>0.3125072974316249</v>
+        <v>0.01512985839352616</v>
       </c>
       <c r="I3">
-        <v>0.1407833427597668</v>
+        <v>0.004669226123878534</v>
       </c>
       <c r="J3">
-        <v>0.1272622179817396</v>
+        <v>0.006290727889537192</v>
       </c>
     </row>
     <row r="4">
@@ -484,31 +484,31 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.008656041431959194</v>
+        <v>0.005070926208056451</v>
       </c>
       <c r="C4">
-        <v>0.01915728588676433</v>
+        <v>0.01121970019209092</v>
       </c>
       <c r="D4">
-        <v>0.1307934090698106</v>
+        <v>0.09074352772130251</v>
       </c>
       <c r="E4">
-        <v>1.842067942742932E-07</v>
+        <v>6.146052162493825E-10</v>
       </c>
       <c r="F4">
-        <v>6.33581350690022E-06</v>
+        <v>1.479688282776161E-08</v>
       </c>
       <c r="G4">
-        <v>0.03907759665320814</v>
+        <v>0.0006212639401293912</v>
       </c>
       <c r="H4">
-        <v>0.1180501463638026</v>
+        <v>0.017174574961081</v>
       </c>
       <c r="I4">
-        <v>0.04118002524544827</v>
+        <v>0.004527820844732201</v>
       </c>
       <c r="J4">
-        <v>0.04071355038716083</v>
+        <v>0.005569741123592152</v>
       </c>
     </row>
     <row r="5">
@@ -518,31 +518,31 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.01009418075342601</v>
+        <v>0.006451249841570867</v>
       </c>
       <c r="C5">
-        <v>0.01678006318393624</v>
+        <v>0.01064187041519636</v>
       </c>
       <c r="D5">
-        <v>0.1088330298164412</v>
+        <v>0.07961881714097231</v>
       </c>
       <c r="E5">
-        <v>3.772441304988114E-07</v>
+        <v>9.521080174621146E-09</v>
       </c>
       <c r="F5">
-        <v>9.571793137915474E-06</v>
+        <v>1.778515053565908E-07</v>
       </c>
       <c r="G5">
-        <v>0.07811280545725695</v>
+        <v>0.00650495015938958</v>
       </c>
       <c r="H5">
-        <v>0.04597363306777869</v>
+        <v>0.0134229563277362</v>
       </c>
       <c r="I5">
-        <v>0.01441853026669438</v>
+        <v>0.003533172026517151</v>
       </c>
       <c r="J5">
-        <v>0.01619332918981101</v>
+        <v>0.004530080991907355</v>
       </c>
     </row>
     <row r="6">
@@ -552,31 +552,31 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.00422280974877238</v>
+        <v>0.003350551874628685</v>
       </c>
       <c r="C6">
-        <v>0.01676723553396892</v>
+        <v>0.01342256526267429</v>
       </c>
       <c r="D6">
-        <v>0.09800347531308154</v>
+        <v>0.08382020639938556</v>
       </c>
       <c r="E6">
-        <v>1.525878043903249E-06</v>
+        <v>4.169588102819184E-07</v>
       </c>
       <c r="F6">
-        <v>2.188801390427095E-05</v>
+        <v>5.459368471561191E-06</v>
       </c>
       <c r="G6">
-        <v>0.07677335169155898</v>
+        <v>0.03359250608698555</v>
       </c>
       <c r="H6">
-        <v>0.05035579069667106</v>
+        <v>0.0325497983238143</v>
       </c>
       <c r="I6">
-        <v>0.01115141019913139</v>
+        <v>0.006671346286593395</v>
       </c>
       <c r="J6">
-        <v>0.00816373366054084</v>
+        <v>0.004970852468951886</v>
       </c>
     </row>
     <row r="7">
